--- a/data/scalona_ocena.xlsx
+++ b/data/scalona_ocena.xlsx
@@ -39,19 +39,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0C0C0"/>
-        <bgColor rgb="00C0C0C0"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
         <bgColor rgb="00FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000CCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -63,6 +58,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
         <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0C0C0"/>
+        <bgColor rgb="00C0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -459,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB5"/>
+  <dimension ref="A1:BB39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,13 +469,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="57" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
     <col width="9" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="10" max="10"/>
     <col width="22" customWidth="1" min="11" max="11"/>
@@ -483,7 +484,7 @@
     <col width="13" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="16" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="9" customWidth="1" min="17" max="17"/>
     <col width="20" customWidth="1" min="18" max="18"/>
     <col width="15" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -513,11 +514,11 @@
     <col width="19" customWidth="1" min="44" max="44"/>
     <col width="15" customWidth="1" min="45" max="45"/>
     <col width="7" customWidth="1" min="46" max="46"/>
-    <col width="16" customWidth="1" min="47" max="47"/>
+    <col width="22" customWidth="1" min="47" max="47"/>
     <col width="22" customWidth="1" min="48" max="48"/>
     <col width="18" customWidth="1" min="49" max="49"/>
     <col width="18" customWidth="1" min="50" max="50"/>
-    <col width="8" customWidth="1" min="51" max="51"/>
+    <col width="16" customWidth="1" min="51" max="51"/>
     <col width="14" customWidth="1" min="52" max="52"/>
     <col width="11" customWidth="1" min="53" max="53"/>
     <col width="10" customWidth="1" min="54" max="54"/>
@@ -798,109 +799,133 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Decora S.A.</t>
+          <t>Astarta Holding PLC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DCR.WA</t>
+          <t>AST.WA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>74.59999999999999</v>
+        <v>53.5</v>
       </c>
       <c r="E2" t="n">
-        <v>9.479034</v>
+        <v>3.6668952</v>
       </c>
       <c r="G2" t="n">
-        <v>1.3381026</v>
+        <v>0.04934402</v>
       </c>
       <c r="H2" t="n">
-        <v>2.2321293</v>
+        <v>0.054240987</v>
       </c>
       <c r="I2" t="n">
-        <v>24.77</v>
+        <v>16.06</v>
       </c>
       <c r="J2" t="n">
-        <v>13.46</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>15.15</v>
+        <v>36.29</v>
       </c>
       <c r="L2" t="n">
-        <v>42.33</v>
+        <v>36.9</v>
       </c>
       <c r="M2" t="n">
-        <v>3.045</v>
+        <v>4.785</v>
       </c>
       <c r="N2" t="n">
-        <v>1.519</v>
+        <v>1.575</v>
       </c>
       <c r="O2" t="n">
-        <v>0.496</v>
+        <v>0.79</v>
       </c>
       <c r="P2" t="n">
-        <v>30394876</v>
+        <v>3056765952</v>
       </c>
       <c r="Q2" t="n">
-        <v>27.26</v>
+        <v>2.04</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>2.16</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-80</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4186.65</v>
+      </c>
+      <c r="V2" t="n">
+        <v>113851000</v>
+      </c>
+      <c r="W2" t="n">
+        <v>24242000</v>
+      </c>
+      <c r="X2" t="n">
+        <v>748222000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>158913000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.21</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.59999999999999</v>
+        <v>53.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.13</v>
+        <v>55.33</v>
       </c>
       <c r="AD2" t="n">
-        <v>77</v>
+        <v>64.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.12</v>
+        <v>16.67</v>
       </c>
       <c r="AF2" t="n">
-        <v>72.59999999999999</v>
+        <v>55.08</v>
       </c>
       <c r="AG2" t="n">
-        <v>73.15000000000001</v>
+        <v>50.68</v>
       </c>
       <c r="AI2" t="n">
-        <v>73.23999999999999</v>
+        <v>57.9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>72.93000000000001</v>
+        <v>55.21</v>
       </c>
       <c r="AK2" t="n">
-        <v>73.72</v>
+        <v>58.86</v>
       </c>
       <c r="AL2" t="n">
-        <v>73.06999999999999</v>
+        <v>57.23</v>
       </c>
       <c r="AM2" t="n">
-        <v>72.23999999999999</v>
+        <v>51.11</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.17</v>
+        <v>4.48</v>
       </c>
       <c r="AO2" t="n">
-        <v>3.22</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
-        <v>8.85</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AQ2" t="n">
-        <v>65.15000000000001</v>
+        <v>51.09</v>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>Blisko Swing High</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -909,16 +934,16 @@
         </is>
       </c>
       <c r="AT2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AU2" s="2" t="inlineStr">
         <is>
-          <t>Spółka średnia</t>
-        </is>
-      </c>
-      <c r="AV2" s="3" t="inlineStr">
-        <is>
-          <t>Medium</t>
+          <t>Dobra w dobrej cenie</t>
+        </is>
+      </c>
+      <c r="AV2" s="2" t="inlineStr">
+        <is>
+          <t>Strong</t>
         </is>
       </c>
       <c r="AW2" s="3" t="inlineStr">
@@ -935,10 +960,10 @@
         </is>
       </c>
       <c r="AZ2" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
@@ -949,120 +974,129 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KRUK Spólka Akcyjna</t>
+          <t>Powszechny Zaklad Ubezpieczen SA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>KRU.WA</t>
+          <t>PZU.WA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>403.2</v>
+        <v>60.1</v>
       </c>
       <c r="E3" t="n">
-        <v>8.361675</v>
+        <v>8.864305999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>3.3950028</v>
+        <v>0.8404219000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1.63566</v>
+        <v>1.5239495</v>
       </c>
       <c r="I3" t="n">
-        <v>22.11</v>
+        <v>19.27</v>
       </c>
       <c r="J3" t="n">
-        <v>11.12</v>
+        <v>3.19</v>
       </c>
       <c r="K3" t="n">
-        <v>55.43</v>
+        <v>42.38</v>
       </c>
       <c r="L3" t="n">
-        <v>72.09</v>
+        <v>59.28</v>
       </c>
       <c r="M3" t="n">
-        <v>1.218</v>
+        <v>5.107</v>
       </c>
       <c r="N3" t="n">
-        <v>0.79</v>
+        <v>4.665</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.543</v>
       </c>
       <c r="P3" t="n">
-        <v>894958144</v>
+        <v>7980125184</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.58</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>18</v>
+        <v>4.47</v>
       </c>
       <c r="T3" t="n">
-        <v>-17.19</v>
+        <v>7.79</v>
       </c>
       <c r="U3" t="n">
-        <v>28.35</v>
+        <v>13.34</v>
       </c>
       <c r="V3" t="n">
-        <v>942200000</v>
+        <v>23948000000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8243000000</v>
       </c>
       <c r="X3" t="n">
-        <v>11648879000</v>
+        <v>503257000000</v>
       </c>
       <c r="Y3" t="n">
-        <v>6626551000</v>
+        <v>30469000000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2.91</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="AB3" t="n">
-        <v>403.2</v>
+        <v>60.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>388.08</v>
+        <v>59.02</v>
       </c>
       <c r="AD3" t="n">
-        <v>442.6</v>
+        <v>63.32</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.9</v>
+        <v>5.09</v>
       </c>
       <c r="AF3" t="n">
-        <v>391.22</v>
+        <v>57.89</v>
       </c>
       <c r="AG3" t="n">
-        <v>409.12</v>
+        <v>54.28</v>
       </c>
       <c r="AI3" t="n">
-        <v>399.31</v>
+        <v>60.74</v>
       </c>
       <c r="AJ3" t="n">
-        <v>398.07</v>
+        <v>58.27</v>
       </c>
       <c r="AK3" t="n">
-        <v>403.17</v>
+        <v>61.54</v>
       </c>
       <c r="AL3" t="n">
-        <v>397.74</v>
+        <v>60.16</v>
       </c>
       <c r="AM3" t="n">
-        <v>403.54</v>
+        <v>52.14</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.08</v>
+        <v>13.25</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.77</v>
+        <v>5.36</v>
       </c>
       <c r="AP3" t="n">
-        <v>12.7</v>
+        <v>13.64</v>
       </c>
       <c r="AQ3" t="n">
-        <v>61.37</v>
+        <v>55.68</v>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
@@ -1075,16 +1109,16 @@
         </is>
       </c>
       <c r="AT3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AU3" s="2" t="inlineStr">
         <is>
-          <t>Spółka średnia</t>
-        </is>
-      </c>
-      <c r="AV3" s="3" t="inlineStr">
-        <is>
-          <t>Medium</t>
+          <t>Dobra w dobrej cenie</t>
+        </is>
+      </c>
+      <c r="AV3" s="2" t="inlineStr">
+        <is>
+          <t>Strong</t>
         </is>
       </c>
       <c r="AW3" s="3" t="inlineStr">
@@ -1093,18 +1127,18 @@
         </is>
       </c>
       <c r="AX3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="AZ3" s="5" t="n">
+      <c r="AZ3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="inlineStr">
         <is>
@@ -1115,108 +1149,123 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>XTB S.A.</t>
+          <t>KRUK Spólka Akcyjna</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>XTB.WA</t>
+          <t>KRU.WA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>85.8</v>
+        <v>394.2</v>
       </c>
       <c r="E4" t="n">
-        <v>11.769547</v>
+        <v>8.171640999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>5.4795036</v>
+        <v>3.3184478</v>
       </c>
       <c r="H4" t="n">
-        <v>5.034916</v>
+        <v>1.600026</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.74</v>
       </c>
       <c r="K4" t="n">
-        <v>41.13</v>
+        <v>83.73</v>
       </c>
       <c r="L4" t="n">
-        <v>84.04000000000001</v>
+        <v>71.97</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1005001472</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>13.71</v>
       </c>
       <c r="S4" t="n">
-        <v>5.45</v>
+        <v>18</v>
       </c>
       <c r="T4" t="n">
-        <v>-2.8</v>
+        <v>-17.16</v>
       </c>
       <c r="U4" t="n">
-        <v>10.11</v>
+        <v>28.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1049545000</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1094000</v>
+        <v>942200000</v>
       </c>
       <c r="X4" t="n">
-        <v>6645632000</v>
+        <v>11648879000</v>
       </c>
       <c r="Y4" t="n">
-        <v>33935000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>959.36</v>
+        <v>6626551000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.01</v>
+        <v>0.57</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.8</v>
+        <v>394.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.78</v>
+        <v>390.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>90.2</v>
+        <v>442.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.88</v>
+        <v>10.94</v>
       </c>
       <c r="AF4" t="n">
-        <v>74.59</v>
+        <v>391.84</v>
       </c>
       <c r="AG4" t="n">
-        <v>72.26000000000001</v>
+        <v>408.52</v>
       </c>
       <c r="AI4" t="n">
-        <v>83.53</v>
+        <v>399.49</v>
       </c>
       <c r="AJ4" t="n">
-        <v>77.73</v>
+        <v>398.3</v>
       </c>
       <c r="AK4" t="n">
-        <v>85.83</v>
+        <v>401.83</v>
       </c>
       <c r="AL4" t="n">
-        <v>81.94</v>
+        <v>398.22</v>
       </c>
       <c r="AM4" t="n">
-        <v>71.68000000000001</v>
+        <v>403.36</v>
       </c>
       <c r="AN4" t="n">
-        <v>16.45</v>
+        <v>-2.32</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.13</v>
+        <v>12.28</v>
       </c>
       <c r="AP4" t="n">
-        <v>26.55</v>
+        <v>10.71</v>
       </c>
       <c r="AQ4" t="n">
-        <v>64.91</v>
+        <v>45.47</v>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
@@ -1229,11 +1278,11 @@
         </is>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU4" s="6" t="inlineStr">
-        <is>
-          <t>Spółka słaba</t>
+        <v>7</v>
+      </c>
+      <c r="AU4" s="2" t="inlineStr">
+        <is>
+          <t>Dobra w dobrej cenie</t>
         </is>
       </c>
       <c r="AV4" s="3" t="inlineStr">
@@ -1247,7 +1296,7 @@
         </is>
       </c>
       <c r="AX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
@@ -1255,10 +1304,10 @@
         </is>
       </c>
       <c r="AZ4" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="BB4" t="inlineStr">
         <is>
@@ -1269,146 +1318,143 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Orlen S.A.</t>
+          <t>Cyfrowy Polsat S.A.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PKN.WA</t>
+          <t>CPS.WA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>72.39</v>
+        <v>17.005</v>
       </c>
       <c r="E5" t="n">
-        <v>10.537118</v>
+        <v>12.060284</v>
       </c>
       <c r="G5" t="n">
-        <v>0.28490606</v>
+        <v>0.6478579</v>
       </c>
       <c r="H5" t="n">
-        <v>0.57680357</v>
+        <v>0.67482835</v>
       </c>
       <c r="I5" t="n">
-        <v>0.92</v>
+        <v>4.66</v>
       </c>
       <c r="J5" t="n">
-        <v>4.89</v>
+        <v>3.12</v>
       </c>
       <c r="K5" t="n">
-        <v>11.14</v>
+        <v>11.4</v>
       </c>
       <c r="L5" t="n">
-        <v>14.16</v>
+        <v>12.71</v>
       </c>
       <c r="M5" t="n">
-        <v>1.138</v>
+        <v>1.586</v>
       </c>
       <c r="N5" t="n">
-        <v>0.657</v>
+        <v>1.219</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="P5" t="n">
-        <v>1215124992</v>
+        <v>397637504</v>
       </c>
       <c r="Q5" t="n">
-        <v>85.11</v>
-      </c>
-      <c r="S5" t="n">
+        <v>59.24</v>
+      </c>
+      <c r="T5" t="n">
+        <v>35.58</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2203300000</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1123800000</v>
+      </c>
+      <c r="X5" t="n">
+        <v>37468000000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15180200000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>17.72</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT5" t="n">
         <v>6</v>
       </c>
-      <c r="T5" t="n">
-        <v>-39.2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>-20.87</v>
-      </c>
-      <c r="V5" t="n">
-        <v>16480000000</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1143000000</v>
-      </c>
-      <c r="X5" t="n">
-        <v>262742000000</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>29541000000</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>14.42</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>72.39</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>67.75</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>73</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>60.87</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>69.89</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>66.98999999999999</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>70.98999999999999</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>69.23</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>59.5</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>70.28</v>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>Blisko Swing High</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>Bullish</t>
-        </is>
-      </c>
-      <c r="AT5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU5" s="6" t="inlineStr">
-        <is>
-          <t>Spółka słaba</t>
+      <c r="AU5" s="2" t="inlineStr">
+        <is>
+          <t>Dobra w dobrej cenie</t>
         </is>
       </c>
       <c r="AV5" s="3" t="inlineStr">
@@ -1416,9 +1462,9 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="AW5" s="6" t="inlineStr">
-        <is>
-          <t>Overvalued</t>
+      <c r="AW5" s="2" t="inlineStr">
+        <is>
+          <t>Undervalued</t>
         </is>
       </c>
       <c r="AX5" t="n">
@@ -1430,12 +1476,5514 @@
         </is>
       </c>
       <c r="AZ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eurocash S.A.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>EUR.WA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>9.475</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.041623574</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.0870044</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="L6" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="P6" t="n">
+        <v>479410880</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-108.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V6" t="n">
+        <v>486817811</v>
+      </c>
+      <c r="W6" t="n">
+        <v>291821500</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9056279053</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2555268723</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>Bearish</t>
+        </is>
+      </c>
+      <c r="AT6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU6" s="2" t="inlineStr">
+        <is>
+          <t>Dobra w dobrej cenie</t>
+        </is>
+      </c>
+      <c r="AV6" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW6" s="2" t="inlineStr">
+        <is>
+          <t>Undervalued</t>
+        </is>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alior Bank S.A.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ALR.WA</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.871866</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.4498167</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.1618677</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K7" t="n">
+        <v>47.66</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.237</v>
+      </c>
+      <c r="S7" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-3.81</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2050006000</v>
+      </c>
+      <c r="X7" t="n">
+        <v>93293487000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2431921000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>105.52</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>123.15</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>107.71</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>100.14</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>106.12</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>106.02</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>106.16</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>98.75</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>57.97</v>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>Bearish</t>
+        </is>
+      </c>
+      <c r="AT7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU7" s="2" t="inlineStr">
+        <is>
+          <t>Dobra w dobrej cenie</t>
+        </is>
+      </c>
+      <c r="AV7" s="2" t="inlineStr">
+        <is>
+          <t>Strong</t>
+        </is>
+      </c>
+      <c r="AW7" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX7" t="n">
         <v>1</v>
       </c>
-      <c r="BA5" t="n">
-        <v>96</v>
-      </c>
-      <c r="BB5" t="inlineStr">
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NEUCA S.A.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NEU.WA</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>708</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19.910011</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.25539702</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.7832267</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-181945872</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-22.19</v>
+      </c>
+      <c r="S8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-34.99</v>
+      </c>
+      <c r="U8" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="V8" t="n">
+        <v>285137000</v>
+      </c>
+      <c r="W8" t="n">
+        <v>81348000</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5175267000</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>369322000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>708</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>704.2</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>843</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>737.58</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>788.1900000000001</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>715.38</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>736.0700000000001</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>713.4400000000001</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>718.38</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>798.4299999999999</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-12.77</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>Bearish</t>
+        </is>
+      </c>
+      <c r="AT8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU8" s="2" t="inlineStr">
+        <is>
+          <t>Dobra w dobrej cenie</t>
+        </is>
+      </c>
+      <c r="AV8" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW8" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ZE PAK SA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ZEP.WA</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>24</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.714932</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.53821087</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5946482</v>
+      </c>
+      <c r="I9" t="n">
+        <v>26.17</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L9" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-612869504</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="T9" t="n">
+        <v>152.57</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-17.32</v>
+      </c>
+      <c r="V9" t="n">
+        <v>754540000</v>
+      </c>
+      <c r="W9" t="n">
+        <v>72179000</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3589708000</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>39855000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>32.92</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>73.31</v>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU9" s="2" t="inlineStr">
+        <is>
+          <t>Dobra w dobrej cenie</t>
+        </is>
+      </c>
+      <c r="AV9" s="2" t="inlineStr">
+        <is>
+          <t>Strong</t>
+        </is>
+      </c>
+      <c r="AW9" s="5" t="inlineStr">
+        <is>
+          <t>Overvalued</t>
+        </is>
+      </c>
+      <c r="AX9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FERRO S.A.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FRO.WA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.638889000000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.93757176</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.6856936</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="K10" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="L10" t="n">
+        <v>39.51</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.581</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="P10" t="n">
+        <v>161649872</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>33.34</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>37</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>34.13</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>35.23</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>33.96</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34.11</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>33.95</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>35.22</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>48.98</v>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU10" s="2" t="inlineStr">
+        <is>
+          <t>Dobra w dobrej cenie</t>
+        </is>
+      </c>
+      <c r="AV10" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW10" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ambra S.A.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AMB.WA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10.846153</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.58262527</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.2864181</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="K11" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="L11" t="n">
+        <v>43.13</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.627</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="P11" t="n">
+        <v>42895376</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-4.64</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>45.83</v>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>Blisko Swing Low</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>Bearish</t>
+        </is>
+      </c>
+      <c r="AT11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU11" s="6" t="inlineStr">
+        <is>
+          <t>Spółka średnia</t>
+        </is>
+      </c>
+      <c r="AV11" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW11" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Energa SA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ENG.WA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E12" t="n">
+        <v>18.553848</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.23907925</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4234402</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-1.92</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-4243249920</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-3.81</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-5.67</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51.22</v>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU12" s="6" t="inlineStr">
+        <is>
+          <t>Spółka średnia</t>
+        </is>
+      </c>
+      <c r="AV12" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW12" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bank Polska Kasa Opieki S.A.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PEO.WA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>179.4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.1932635</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.115876</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.3858953</v>
+      </c>
+      <c r="I13" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53.67</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="S13" t="n">
+        <v>18.36</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6081000000</v>
+      </c>
+      <c r="X13" t="n">
+        <v>334242000000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>25038000000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>179.4</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>166.98</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>164.43</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>174.38</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>166.14</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>177.68</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>172.25</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>151.47</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>64.47</v>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>Blisko Swing High</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU13" s="6" t="inlineStr">
+        <is>
+          <t>Spółka średnia</t>
+        </is>
+      </c>
+      <c r="AV13" s="2" t="inlineStr">
+        <is>
+          <t>Strong</t>
+        </is>
+      </c>
+      <c r="AW13" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PlayWay S.A.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PLW.WA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>308.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.584325</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6.5283256</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5.448701</v>
+      </c>
+      <c r="I14" t="n">
+        <v>38.84</v>
+      </c>
+      <c r="J14" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>62.59</v>
+      </c>
+      <c r="L14" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>14.171</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10.038</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="P14" t="n">
+        <v>107485624</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="S14" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="V14" t="n">
+        <v>133810000</v>
+      </c>
+      <c r="W14" t="n">
+        <v>568000</v>
+      </c>
+      <c r="X14" t="n">
+        <v>534946000</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2838000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>235.58</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>308.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>294.67</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>315</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>289.63</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>295.12</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>301.32</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>295.79</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>304.56</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>299.41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>291.64</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>56.94</v>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>Blisko Swing High</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU14" s="6" t="inlineStr">
+        <is>
+          <t>Spółka średnia</t>
+        </is>
+      </c>
+      <c r="AV14" s="2" t="inlineStr">
+        <is>
+          <t>Strong</t>
+        </is>
+      </c>
+      <c r="AW14" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BNP Paribas Bank Polska S.A.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>BNP.WA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.1651917</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.9719523</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.95360637</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K15" t="n">
+        <v>48.87</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="U15" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4504077000</v>
+      </c>
+      <c r="X15" t="n">
+        <v>167539589000</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12783921000</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>104.38</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>111</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>102.64</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>94.04000000000001</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>102.07</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>105.81</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>104.95</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>93.06</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>46.88</v>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU15" s="6" t="inlineStr">
+        <is>
+          <t>Spółka średnia</t>
+        </is>
+      </c>
+      <c r="AV15" s="2" t="inlineStr">
+        <is>
+          <t>Strong</t>
+        </is>
+      </c>
+      <c r="AW15" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dom Development S.A.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DOM.WA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>234</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10.404624</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.8840752</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.2669702</v>
+      </c>
+      <c r="I16" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="K16" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="L16" t="n">
+        <v>32.23</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="P16" t="n">
+        <v>348543744</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="S16" t="n">
+        <v>13</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-8.24</v>
+      </c>
+      <c r="U16" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="V16" t="n">
+        <v>708838000</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2406000</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5288518000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>735015000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>294.61</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>234</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>223.02</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>218.39</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>208.08</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>229.19</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>220.46</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>232.28</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>227</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>209.7</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>62.39</v>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>Blisko Swing High</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU16" s="6" t="inlineStr">
+        <is>
+          <t>Spółka średnia</t>
+        </is>
+      </c>
+      <c r="AV16" s="2" t="inlineStr">
+        <is>
+          <t>Strong</t>
+        </is>
+      </c>
+      <c r="AW16" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ING Bank Slaski S.A.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ING.WA</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>299</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.867141</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.9308712</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.0688605</v>
+      </c>
+      <c r="I17" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K17" t="n">
+        <v>48.24</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="S17" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-3.13</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-6.92</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4387000000</v>
+      </c>
+      <c r="X17" t="n">
+        <v>260359000000</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>16272000000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>299</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>301.06</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>314.52</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>299.44</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>279.62</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>304.46</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>297.26</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>305.32</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>303.27</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>266.45</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>46.38</v>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU17" s="6" t="inlineStr">
+        <is>
+          <t>Spółka średnia</t>
+        </is>
+      </c>
+      <c r="AV17" s="2" t="inlineStr">
+        <is>
+          <t>Strong</t>
+        </is>
+      </c>
+      <c r="AW17" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Powszechna Kasa Oszczednosci Bank Polski Spólka Akcyjna</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PKO.WA</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>75.18000000000001</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9.675675</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.3444252</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.6968356</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K18" t="n">
+        <v>61.23</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-10.38</v>
+      </c>
+      <c r="U18" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="W18" t="n">
+        <v>9986000000</v>
+      </c>
+      <c r="X18" t="n">
+        <v>525225000000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>30161000000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>75.18000000000001</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>73.42</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>80.04000000000001</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>74.23</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>69.98</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>73.67</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>75.08</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>68.61</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>59.04</v>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU18" s="6" t="inlineStr">
+        <is>
+          <t>Spółka średnia</t>
+        </is>
+      </c>
+      <c r="AV18" s="2" t="inlineStr">
+        <is>
+          <t>Strong</t>
+        </is>
+      </c>
+      <c r="AW18" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Asseco Poland S.A.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ACP.WA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>177.2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>23.254593</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.70531845</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.198484</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="K19" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="L19" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.358</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.243</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1768150016</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="T19" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1877200000</v>
+      </c>
+      <c r="W19" t="n">
+        <v>218700000</v>
+      </c>
+      <c r="X19" t="n">
+        <v>20325000000</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3912800000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>177.2</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>158.2</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>177.2</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>155.76</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>135.49</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>166.22</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>155.49</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>170.32</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>163.69</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>130.56</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>Blisko Swing High</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU19" s="6" t="inlineStr">
+        <is>
+          <t>Spółka średnia</t>
+        </is>
+      </c>
+      <c r="AV19" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW19" s="5" t="inlineStr">
+        <is>
+          <t>Overvalued</t>
+        </is>
+      </c>
+      <c r="AX19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Wirtualna Polska Holding S.A.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>WPL.WA</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18.11918</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.8375976</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.973444</v>
+      </c>
+      <c r="I20" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K20" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="L20" t="n">
+        <v>67.95999999999999</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.243</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.036</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="P20" t="n">
+        <v>225615504</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>91.29000000000001</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>86.06</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>80.69</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>94.31999999999999</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>88.36</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>96.48</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>92.81999999999999</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>67.27</v>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU20" s="6" t="inlineStr">
+        <is>
+          <t>Spółka średnia</t>
+        </is>
+      </c>
+      <c r="AV20" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW20" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Amica S.A.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>AMC.WA</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.18928212</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.46402863</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="L21" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="P21" t="n">
+        <v>67287504</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-121.19</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-24.64</v>
+      </c>
+      <c r="V21" t="n">
+        <v>69400000</v>
+      </c>
+      <c r="W21" t="n">
+        <v>46400000</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1995000000</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>243000000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>64.45999999999999</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>63.04</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>63.31</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>63.63</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>63.39</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>56.76</v>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>Bearish</t>
+        </is>
+      </c>
+      <c r="AT21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU21" s="6" t="inlineStr">
+        <is>
+          <t>Spółka średnia</t>
+        </is>
+      </c>
+      <c r="AV21" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW21" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Kernel Holding S.A.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>KER.WA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.556291</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.4735432</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.8947368</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="L22" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="P22" t="n">
+        <v>165420368</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>35.11</v>
+      </c>
+      <c r="T22" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="U22" t="n">
+        <v>14</v>
+      </c>
+      <c r="V22" t="n">
+        <v>321712000</v>
+      </c>
+      <c r="W22" t="n">
+        <v>110660000</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3396911000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1082486000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>-5.78</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>54.62</v>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU22" s="6" t="inlineStr">
+        <is>
+          <t>Spółka średnia</t>
+        </is>
+      </c>
+      <c r="AV22" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW22" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CI Games SE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CIG.WA</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E23" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.0410557</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.7306736</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-48.99</v>
+      </c>
+      <c r="L23" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-13598000</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-31.21</v>
+      </c>
+      <c r="T23" t="n">
+        <v>200</v>
+      </c>
+      <c r="U23" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>29121000</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2837000</v>
+      </c>
+      <c r="X23" t="n">
+        <v>274994000</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>60134000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>92</v>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>Blisko Swing High</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU23" s="6" t="inlineStr">
+        <is>
+          <t>Spółka średnia</t>
+        </is>
+      </c>
+      <c r="AV23" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW23" s="5" t="inlineStr">
+        <is>
+          <t>Overvalued</t>
+        </is>
+      </c>
+      <c r="AX23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ENEA S.A.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ENA.WA</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.819149</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.30730665</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.62696797</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="K24" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="L24" t="n">
+        <v>34.73</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.521</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.182</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1071871232</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="V24" t="n">
+        <v>19277000</v>
+      </c>
+      <c r="W24" t="n">
+        <v>527326000</v>
+      </c>
+      <c r="X24" t="n">
+        <v>39110745000</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8073361000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>93.08</v>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>Blisko Swing High</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU24" s="6" t="inlineStr">
+        <is>
+          <t>Spółka średnia</t>
+        </is>
+      </c>
+      <c r="AV24" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW24" s="5" t="inlineStr">
+        <is>
+          <t>Overvalued</t>
+        </is>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>UNIBEP S.A.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>UNI.WA</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.13786156</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.9938091</v>
+      </c>
+      <c r="I25" t="n">
+        <v>40.44</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-18307950</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-34.2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>52.31</v>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU25" s="6" t="inlineStr">
+        <is>
+          <t>Spółka średnia</t>
+        </is>
+      </c>
+      <c r="AV25" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW25" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TAURON Polska Energia S.A.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>TPE.WA</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>7.406</v>
+      </c>
+      <c r="E26" t="n">
+        <v>22.442423</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.36665967</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.7327595</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="K26" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="L26" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.225</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1953750016</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-71.79000000000001</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-29.25</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2605000000</v>
+      </c>
+      <c r="W26" t="n">
+        <v>719000000</v>
+      </c>
+      <c r="X26" t="n">
+        <v>45714000000</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>14615000000</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>34.55</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>41.22</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>87.55</v>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>Blisko Swing High</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU26" s="6" t="inlineStr">
+        <is>
+          <t>Spółka średnia</t>
+        </is>
+      </c>
+      <c r="AV26" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW26" s="5" t="inlineStr">
+        <is>
+          <t>Overvalued</t>
+        </is>
+      </c>
+      <c r="AX26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>XTB S.A.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>XTB.WA</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>13.12893</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.332617</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.899947</v>
+      </c>
+      <c r="K27" t="n">
+        <v>41.13</v>
+      </c>
+      <c r="L27" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-15.2</v>
+      </c>
+      <c r="U27" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1096167000</v>
+      </c>
+      <c r="W27" t="n">
+        <v>47716000</v>
+      </c>
+      <c r="X27" t="n">
+        <v>6645632000</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>33935000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>81.41</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>75.73</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>72.75</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>83.63</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>78.45</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>85.06999999999999</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>82.34999999999999</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>72.54000000000001</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>24.53</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>54.58</v>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU27" s="5" t="inlineStr">
+        <is>
+          <t>Spółka słaba</t>
+        </is>
+      </c>
+      <c r="AV27" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW27" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Bank Ochrony Srodowiska S.A.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BOS.WA</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="E28" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.5681446</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5282568</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K28" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>-9.17</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>31.08</v>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>Blisko Swing Low</t>
+        </is>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>Bearish</t>
+        </is>
+      </c>
+      <c r="AT28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU28" s="5" t="inlineStr">
+        <is>
+          <t>Spółka słaba</t>
+        </is>
+      </c>
+      <c r="AV28" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW28" s="2" t="inlineStr">
+        <is>
+          <t>Undervalued</t>
+        </is>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dino Polska S.A.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DNP.WA</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>527.2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>33.9472</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.7253717</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6.9827814</v>
+      </c>
+      <c r="I29" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="L29" t="n">
+        <v>23.56</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P29" t="n">
+        <v>19295750</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2717.68</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-14.58</v>
+      </c>
+      <c r="U29" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1913898000</v>
+      </c>
+      <c r="W29" t="n">
+        <v>120335000</v>
+      </c>
+      <c r="X29" t="n">
+        <v>13055794000</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1086816000</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>527.2</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>517.27</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>556.2</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>496.53</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>472.92</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>529.6900000000001</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>506.75</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>535.5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>524.3099999999999</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>465.99</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>49.21</v>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU29" s="5" t="inlineStr">
+        <is>
+          <t>Spółka słaba</t>
+        </is>
+      </c>
+      <c r="AV29" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW29" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ29" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Bank Millennium S.A.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MIL.WA</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="E30" t="n">
+        <v>22.84127</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.7268596</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.1796424</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K30" t="n">
+        <v>46.64</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-55</v>
+      </c>
+      <c r="U30" t="n">
+        <v>-8.289999999999999</v>
+      </c>
+      <c r="W30" t="n">
+        <v>3293183000</v>
+      </c>
+      <c r="X30" t="n">
+        <v>139151532000</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>7951543000</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>47.94</v>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU30" s="5" t="inlineStr">
+        <is>
+          <t>Spółka słaba</t>
+        </is>
+      </c>
+      <c r="AV30" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW30" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Orange Polska S.A.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>OPL.WA</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9.926</v>
+      </c>
+      <c r="E31" t="n">
+        <v>14.597058</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.0173762</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9453333</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K31" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="L31" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="P31" t="n">
+        <v>833124992</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-9.33</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1445000000</v>
+      </c>
+      <c r="W31" t="n">
+        <v>317000000</v>
+      </c>
+      <c r="X31" t="n">
+        <v>26598000000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>7068000000</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>59.93</v>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>Blisko Swing High</t>
+        </is>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU31" s="5" t="inlineStr">
+        <is>
+          <t>Spółka słaba</t>
+        </is>
+      </c>
+      <c r="AV31" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW31" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Orlen S.A.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PKN.WA</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>71.68000000000001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10.43377</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.2821117</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5711463</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="K32" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="L32" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.138</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1215124992</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>85.68000000000001</v>
+      </c>
+      <c r="S32" t="n">
+        <v>6</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-39.2</v>
+      </c>
+      <c r="U32" t="n">
+        <v>-20.87</v>
+      </c>
+      <c r="V32" t="n">
+        <v>16480000000</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1143000000</v>
+      </c>
+      <c r="X32" t="n">
+        <v>262742000000</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>29541000000</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>71.68000000000001</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>68.31999999999999</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>73</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>68.12</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>61.64</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>70.51000000000001</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>67.61</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>71.48999999999999</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>69.86</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>59.94</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>68.22</v>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>Blisko Swing High</t>
+        </is>
+      </c>
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU32" s="5" t="inlineStr">
+        <is>
+          <t>Spółka słaba</t>
+        </is>
+      </c>
+      <c r="AV32" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW32" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY32" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Aplisens S.A.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>APN.WA</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9.471154</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.3670146</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9724554</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="J33" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="K33" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L33" t="n">
+        <v>36.93</v>
+      </c>
+      <c r="M33" t="n">
+        <v>10.068</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.613</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6879000</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AR33" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU33" s="5" t="inlineStr">
+        <is>
+          <t>Spółka słaba</t>
+        </is>
+      </c>
+      <c r="AV33" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW33" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Grupa Azoty S.A.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ATT.WA</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>24</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.18261541</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.49208564</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-18.33</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-8.51</v>
+      </c>
+      <c r="L34" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-664871616</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-19.84</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-67.69</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-47.13</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-3288975000</v>
+      </c>
+      <c r="W34" t="n">
+        <v>294289000</v>
+      </c>
+      <c r="X34" t="n">
+        <v>24296520000</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>7942421000</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-11.18</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>20.67</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>70.17</v>
+      </c>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>Blisko Swing High</t>
+        </is>
+      </c>
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU34" s="5" t="inlineStr">
+        <is>
+          <t>Spółka słaba</t>
+        </is>
+      </c>
+      <c r="AV34" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW34" s="5" t="inlineStr">
+        <is>
+          <t>Overvalued</t>
+        </is>
+      </c>
+      <c r="AX34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY34" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AmRest Holdings SE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>EAT.WA</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1.3730265</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9.624413000000001</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="P35" t="n">
+        <v>99337504</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>49.87</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U35" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="V35" t="n">
+        <v>117700000</v>
+      </c>
+      <c r="W35" t="n">
+        <v>83300000</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2368400000</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1587300000</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>-4.62</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>Blisko Swing Low</t>
+        </is>
+      </c>
+      <c r="AS35" t="inlineStr">
+        <is>
+          <t>Bearish</t>
+        </is>
+      </c>
+      <c r="AT35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU35" s="5" t="inlineStr">
+        <is>
+          <t>Spółka słaba</t>
+        </is>
+      </c>
+      <c r="AV35" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW35" s="2" t="inlineStr">
+        <is>
+          <t>Undervalued</t>
+        </is>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>Do sprawdzenia</t>
+        </is>
+      </c>
+      <c r="AZ35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Lubelski Wegiel Bogdanka S.A.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LWB.WA</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>24</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.2227323</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.30287734</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-42.55</v>
+      </c>
+      <c r="J36" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="K36" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="L36" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2.373</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.971</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-24769750</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-215.26</v>
+      </c>
+      <c r="U36" t="n">
+        <v>49.49</v>
+      </c>
+      <c r="V36" t="n">
+        <v>864967000</v>
+      </c>
+      <c r="W36" t="n">
+        <v>14344000</v>
+      </c>
+      <c r="X36" t="n">
+        <v>5762168000</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>37244000</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t>Blisko Swing High</t>
+        </is>
+      </c>
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU36" s="5" t="inlineStr">
+        <is>
+          <t>Spółka słaba</t>
+        </is>
+      </c>
+      <c r="AV36" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW36" s="5" t="inlineStr">
+        <is>
+          <t>Overvalued</t>
+        </is>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Globe Trade Centre S.A.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GTC.WA</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E37" t="n">
+        <v>11.705882</v>
+      </c>
+      <c r="G37" t="n">
+        <v>12.189519</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.0264766</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K37" t="n">
+        <v>46.36</v>
+      </c>
+      <c r="L37" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="P37" t="n">
+        <v>31000000</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>127.45</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-37.04</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V37" t="n">
+        <v>103500000</v>
+      </c>
+      <c r="W37" t="n">
+        <v>41600000</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3223600000</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1647200000</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="AR37" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS37" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU37" s="5" t="inlineStr">
+        <is>
+          <t>Spółka słaba</t>
+        </is>
+      </c>
+      <c r="AV37" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW37" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ37" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB37" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Banco Santander, S.A.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SAN.WA</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>8.612717</v>
+      </c>
+      <c r="G38" t="n">
+        <v>8.743228999999999</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.435844</v>
+      </c>
+      <c r="I38" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K38" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.256</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>27.73</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>84.53</v>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>Blisko Swing High</t>
+        </is>
+      </c>
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU38" s="5" t="inlineStr">
+        <is>
+          <t>Spółka słaba</t>
+        </is>
+      </c>
+      <c r="AV38" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW38" s="5" t="inlineStr">
+        <is>
+          <t>Overvalued</t>
+        </is>
+      </c>
+      <c r="AX38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="inlineStr">
+        <is>
+          <t>Unikaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Boryszew S.A.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>BRS.WA</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E39" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.2575087</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.8325769</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-6.95</v>
+      </c>
+      <c r="L39" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.194</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="P39" t="n">
+        <v>60517124</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>41.51</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>61.64</v>
+      </c>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AS39" t="inlineStr">
+        <is>
+          <t>Bullish</t>
+        </is>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="5" t="inlineStr">
+        <is>
+          <t>Spółka słaba</t>
+        </is>
+      </c>
+      <c r="AV39" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AW39" s="3" t="inlineStr">
+        <is>
+          <t>Fairly Valued</t>
+        </is>
+      </c>
+      <c r="AX39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY39" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="AZ39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="inlineStr">
         <is>
           <t>Unikaj</t>
         </is>
